--- a/策划文档/数值用表/MAGIC_skill.xlsx
+++ b/策划文档/数值用表/MAGIC_skill.xlsx
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -28,6 +28,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,10 +38,12 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-特效文件名</t>
+1、被动技能(技能对象处为空)
+2、主动技能需要触发</t>
         </r>
       </text>
     </comment>
@@ -52,6 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -61,11 +65,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、被动技能
-2、主动技能需要触发</t>
+发动技能需要的能量</t>
         </r>
       </text>
     </comment>
@@ -77,6 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -86,10 +91,32 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-发动技能需要的能量</t>
+绝对位置：
+1、我方1号位
+2、我方2号位
+3、我方3号位
+4、我方4号位
+5、敌方1号位置
+6、敌方2号位置
+7、敌方3号位置
+8、敌方4号位置
+相对位置：
+9、携带者攻击的目标
+10、被选中对象
+11、本身（BUFF或者技能的携带者）
+12、本身左边的对象
+13、本身右边的对象
+14、本身对应的同位置敌方
+（1.风2.火3.雷4.土5.水）
+15、我方指定五行的
+16、敌方指定五行的
+(1.天神系2.天魔系3.幻妖系4.修罗系5.天选者）
+17、我方指定种族的
+18、敌方指定种族的</t>
         </r>
       </text>
     </comment>
@@ -101,6 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -110,41 +138,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、被选中对象
-2、被选中的我方对象
-3、被选中的敌方对象
-4、本身
-5、本身的前方对象
-6、本身及前方对象
-7、本身的后方对象
-8、本身及后方对象
-9、本身的左方对象
-10、本身及左方对象
-11、本身的右方对象
-12、本身及右方对象
-13、本身的前后2个对象
-14、本身及前后2个对象
-15、本身的左右2个对象
-16、本身及左右2个对象
-17、本身的前后左右4个对象
-18、本身及前后左右4个对象
-19、我方全体
-20、敌方全体
-21、敌方前排
-22、敌方后排
-23、本身对应的敌方纵列
-24、本身对应的同位置敌方
-25、我方血量最低的
-26、敌方血量最低的
-27、我方血量低于一定值的
-28、敌方血量低于一定值的
-29、我方指定五行的
-30、敌方指定五行的
-31、我方指定种族的
-32、敌方指定种族的</t>
+1、固定值
+2、攻击万分比加成
+3、法术万分比加成
+4、护甲万分比加成
+5、魔抗万分比加成
+6、生命万分比加成
+7、力量万分比加成
+8、智力万分比加成
+9、敏捷万分比加成
+10、精神万分比加成
+11、体质万分比加成
+12、暴击万分比加成</t>
         </r>
       </text>
     </comment>
@@ -156,6 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -165,22 +175,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、指定血量时：1、百分比2、固定值
-2、指定五行时：1、风
-               2、火
-               3、雷
-               4、土
-               5、水
-     {五行=其数量上限}
-3、指定种族时：1、天神系
-               2、天魔系
-               3、幻妖系
-               4、修罗系
-               5、天选者
-     {种族=其数量上限}</t>
+1、固定值
+2、攻击万分比加成
+3、法术万分比加成
+4、护甲万分比加成
+5、魔抗万分比加成
+6、生命万分比加成
+7、力量万分比加成
+8、智力万分比加成
+9、敏捷万分比加成
+10、精神万分比加成
+11、体质万分比加成
+12、暴击万分比加成</t>
         </r>
       </text>
     </comment>
@@ -192,6 +202,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -201,12 +212,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、物理伤害
-2、魔法伤害
-3、真实伤害</t>
+1、固定值
+2、攻击万分比加成
+3、法术万分比加成
+4、护甲万分比加成
+5、魔抗万分比加成
+6、生命万分比加成
+7、力量万分比加成
+8、智力万分比加成
+9、敏捷万分比加成
+10、精神万分比加成
+11、体质万分比加成
+12、暴击万分比加成
+</t>
         </r>
       </text>
     </comment>
@@ -218,6 +240,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -227,40 +250,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、固定值
-2、百分比</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1、攻击值的一定百分比
-2、法术值的一定百分比
-3、护甲值的一定百分比
-4、魔抗值的一定百分比
-5、生命值的一定百分比
-</t>
+BUFF表ID</t>
         </r>
       </text>
     </comment>
@@ -274,6 +268,63 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、给目标施加XX个标记物
+2、造成标记物数量乘以固定值数值大小的真实伤害
+3、提升目标一定比例的攻击力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、XX对象普通攻击时触发
+    1、自身
+    2、我方英雄
+2、作用目标携带指定ID标记物</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0">
       <text>
         <r>
@@ -282,6 +333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -291,11 +343,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、百分比
-2、固定值</t>
+1、固定值
+2、万分比值
+3、标记物代号</t>
         </r>
       </text>
     </comment>
@@ -307,6 +361,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -316,6 +371,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,6 +389,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -342,41 +399,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、被选中对象
-2、被选中的我方对象
-3、被选中的敌方对象
-4、本身
-5、本身的前方对象
-6、本身及前方对象
-7、本身的后方对象
-8、本身及后方对象
-9、本身的左方对象
-10、本身及左方对象
-11、本身的右方对象
-12、本身及右方对象
-13、本身的前后2个对象
-14、本身及前后2个对象
-15、本身的左右2个对象
-16、本身及左右2个对象
-17、本身的前后左右4个对象
-18、本身及前后左右4个对象
-19、我方全体
-20、敌方全体
-21、敌方前排
-22、敌方后排
-23、本身对应的敌方纵列
-24、本身对应的同位置敌方
-25、我方血量最低的
-26、敌方血量最低的
-27、我方血量低于一定值的
-28、敌方血量低于一定值的
-29、我方指定五行的
-30、敌方指定五行的
-31、我方指定种族的
-32、敌方指定种族的</t>
+0、不清除
+1、XX回合清除
+2、ID为XX的BUFF触发时
+3、被主动移除</t>
         </r>
       </text>
     </comment>
@@ -388,31 +418,156 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+-1无参数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、指定血量时：1、百分比2、固定值
-2、指定五行时：1、风
-               2、火
-               3、雷
-               4、土
-               5、水
-     {五行=其数量上限}
-3、指定种族时：1、天神系
-               2、天魔系
-               3、幻妖系
-               4、修罗系
-               5、天选者
-     {种族=其数量上限}</t>
+1、叠加数值
+2、叠加效果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+绝对位置：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1、我方1号位
+2、我方2号位
+3、我方3号位
+4、我方4号位
+5、敌方1号位置
+6、敌方2号位置
+7、敌方3号位置
+8、敌方4号位置
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>相对位置：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">9、携带者攻击的目标
+10、被选中对象
+11、本身（BUFF或者技能的携带者）
+12、本身左边的对象
+13、本身右边的对象
+14、本身对应的同位置敌方
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（1.风2.火3.雷4.土5.水）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+15、我方指定五行的
+16、敌方指定五行的
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(1.天神系2.天魔系3.幻妖系4.修罗系5.天选者）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+17、我方指定种族的
+18、敌方指定种族的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -421,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,152 +590,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BUFF效果</t>
+  </si>
+  <si>
+    <t>BUFF叠加规则</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>buff_effect</t>
+  </si>
+  <si>
+    <t>buff_overlay_rule</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>效果参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF作用对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_effect_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>效果描述</t>
-  </si>
-  <si>
-    <t>BUFF效果</t>
-  </si>
-  <si>
-    <t>BUFF叠加规则</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>effect_discribe</t>
-  </si>
-  <si>
-    <t>buff_effect</t>
-  </si>
-  <si>
-    <t>buff_overlay_rule</t>
-  </si>
-  <si>
-    <t>buff_effect_tpye</t>
+    <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truth_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>效果参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔抗提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能对象参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害值增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF作用对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF作用参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF触发条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF触发参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF叠加逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_overlay_logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=1,3=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野性标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,23 +787,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>{2=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF清除条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_clear_cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_active_cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF发动条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2=2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=300,2=2000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2=4000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=-1,2=-1,3=-1,4=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,6 +902,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -638,6 +910,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -968,80 +1241,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="15" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1055,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1073,78 +1362,147 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1158,80 +1516,90 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1248,133 +1616,124 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>4</v>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/策划文档/数值用表/MAGIC_skill.xlsx
+++ b/策划文档/数值用表/MAGIC_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -835,10 +835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1=-1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,6 +872,10 @@
   </si>
   <si>
     <t>{1=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5=-1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1243,8 +1243,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1420,19 +1420,19 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1455,19 +1455,19 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
@@ -1490,19 +1490,19 @@
         <v>-1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1518,8 +1518,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1701,7 +1701,7 @@
         <v>-1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1712,22 +1712,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/数值用表/MAGIC_skill.xlsx
+++ b/策划文档/数值用表/MAGIC_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -96,27 +96,23 @@
           </rPr>
           <t xml:space="preserve">
 绝对位置：
-1、我方1号位
-2、我方2号位
-3、我方3号位
-4、我方4号位
-5、敌方1号位置
-6、敌方2号位置
-7、敌方3号位置
-8、敌方4号位置
+1、我方全体
+2、敌方全体
 相对位置：
-9、携带者攻击的目标
-10、被选中对象
-11、本身（BUFF或者技能的携带者）
-12、本身左边的对象
-13、本身右边的对象
-14、本身对应的同位置敌方
+3、我方左边第一个英雄
+4、敌方左边第一个英雄
+5、携带者攻击的目标
+6、被选中对象
+7、本身（BUFF或者技能的携带者）
+8、本身左边的对象
+9、本身右边的对象
+10、本身对应的同位置敌方
 （1.风2.火3.雷4.土5.水）
-15、我方指定五行的
-16、敌方指定五行的
+11、我方指定五行的
+12、敌方指定五行的
 (1.天神系2.天魔系3.幻妖系4.修罗系5.天选者）
-17、我方指定种族的
-18、敌方指定种族的</t>
+13、我方指定种族的
+14、敌方指定种族的</t>
         </r>
       </text>
     </comment>
@@ -450,7 +446,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
-绝对位置：
 </t>
         </r>
         <r>
@@ -461,113 +456,24 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">1、我方1号位
-2、我方2号位
-3、我方3号位
-4、我方4号位
-5、敌方1号位置
-6、敌方2号位置
-7、敌方3号位置
-8、敌方4号位置
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>相对位置：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">9、携带者攻击的目标
-10、被选中对象
-11、本身（BUFF或者技能的携带者）
-12、本身左边的对象
-13、本身右边的对象
-14、本身对应的同位置敌方
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（1.风2.火3.雷4.土5.水）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-15、我方指定五行的
-16、敌方指定五行的
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>(1.天神系2.天魔系3.幻妖系4.修罗系5.天选者）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-17、我方指定种族的
-18、敌方指定种族的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>绝对位置：
+1、我方全体
+2、敌方全体
+相对位置：
+3、我方左边第一个英雄
+4、敌方左边第一个英雄
+5、携带者攻击的目标
+6、被选中对象
+7、本身（BUFF或者技能的携带者）
+8、本身左边的对象
+9、本身右边的对象
+10、本身对应的同位置敌方
+（1.风2.火3.雷4.土5.水）
+11、我方指定五行的
+12、敌方指定五行的
+(1.天神系2.天魔系3.幻妖系4.修罗系5.天选者）
+13、我方指定种族的
+14、敌方指定种族的</t>
         </r>
       </text>
     </comment>
@@ -847,10 +753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{9=-1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -859,10 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1=-1,2=-1,3=-1,4=-1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,6 +774,14 @@
   </si>
   <si>
     <t>{5=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4=-1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1243,8 +1149,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,13 +1329,13 @@
         <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>66</v>
@@ -1461,10 +1367,10 @@
         <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>67</v>
@@ -1475,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
@@ -1490,19 +1396,19 @@
         <v>-1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1518,8 +1424,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1531,8 +1437,7 @@
     <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1675,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1701,7 +1606,7 @@
         <v>-1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1712,22 +1617,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/数值用表/MAGIC_skill.xlsx
+++ b/策划文档/数值用表/MAGIC_skill.xlsx
@@ -288,7 +288,16 @@
           <t xml:space="preserve">
 1、给目标施加XX个标记物
 2、造成标记物数量乘以固定值数值大小的真实伤害
-3、提升目标一定比例的攻击力</t>
+3、提升目标一定比例的攻击（攻击增幅）
+4、降低目标一定比例的攻击（攻击降幅）
+5、增加一定万分比的普攻伤害（普攻增伤率）
+6、增加一定万分比的物理伤害（物理增伤率）
+7、增加一定万分比的法术伤害（法术增伤率）
+8、增加一定万分比的伤害（伤害增幅）
+9、减少一定万分比的物理伤害(额外护甲减伤)
+10、减伤一定万分比的法术伤害(额外法术减伤)
+11、减伤一定万分比的伤害（伤害减免）
+</t>
         </r>
       </text>
     </comment>
@@ -1425,7 +1434,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/策划文档/数值用表/MAGIC_skill.xlsx
+++ b/策划文档/数值用表/MAGIC_skill.xlsx
@@ -104,9 +104,9 @@
 5、携带者攻击的目标
 6、被选中对象
 7、本身（BUFF或者技能的携带者）
-8、本身左边的对象
-9、本身右边的对象
-10、本身对应的同位置敌方
+8、本身左边的最近的对象(左边没人就是自身)
+9、本身右边的最近的对象(右边没人就是自身)
+10、本身对应的同位置敌方（没有就找与此位置最靠近的位置）
 （1.风2.火3.雷4.土5.水）
 11、我方指定五行的
 12、敌方指定五行的
@@ -297,6 +297,10 @@
 9、减少一定万分比的物理伤害(额外护甲减伤)
 10、减伤一定万分比的法术伤害(额外法术减伤)
 11、减伤一定万分比的伤害（伤害减免）
+12、提升一定万分比的护甲值（护甲提升）
+13、降低一定万分比的护甲值（护甲降低）
+14、提升一定万分比的魔抗值（魔抗提升）
+15、降低一定万分比的魔抗值（魔抗降低）
 </t>
         </r>
       </text>
@@ -1159,7 +1163,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1434,7 +1438,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/策划文档/数值用表/MAGIC_skill.xlsx
+++ b/策划文档/数值用表/MAGIC_skill.xlsx
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
